--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3667.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3667.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mohammad Asghar Afghan</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2964</t>
+          <t>2964</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3007</t>
+          <t>3007</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3008</t>
+          <t>3008</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3087</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3089</t>
+          <t>3089</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3135</t>
+          <t>3135</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3138</t>
+          <t>3138</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3142</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3149</t>
+          <t>3149</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3153</t>
+          <t>3153</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1129,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3166</t>
+          <t>3166</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3185</t>
+          <t>3185</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3187</t>
+          <t>3187</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3310</t>
+          <t>3310</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3406</t>
+          <t>3406</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3407</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3421</t>
+          <t>3421</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3437</t>
+          <t>3437</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3482</t>
+          <t>3482</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3483</t>
+          <t>3483</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3560</t>
+          <t>3560</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3561</t>
+          <t>3561</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3623</t>
+          <t>3623</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3626</t>
+          <t>3626</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2060,7 +2124,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3649</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2112,7 +2176,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3705</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2164,7 +2228,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2216,7 +2280,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3709</t>
+          <t>3709</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2268,7 +2332,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3711</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2320,7 +2384,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3722</t>
+          <t>3722</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2372,7 +2436,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3725</t>
+          <t>3725</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2424,7 +2488,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3730</t>
+          <t>3730</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2476,7 +2540,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3754</t>
+          <t>3754</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2528,7 +2592,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2580,7 +2644,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3764</t>
+          <t>3764</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2632,7 +2696,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3773</t>
+          <t>3773</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2684,7 +2748,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3778</t>
+          <t>3778</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2736,7 +2800,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3843</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2788,7 +2852,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3846</t>
+          <t>3846</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2840,7 +2904,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3847</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2892,7 +2956,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3849</t>
+          <t>3849</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2944,7 +3008,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3850</t>
+          <t>3850</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2996,7 +3060,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3864</t>
+          <t>3864</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3048,7 +3112,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3867</t>
+          <t>3867</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3100,7 +3164,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3869</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3152,7 +3216,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3871</t>
+          <t>3871</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3204,7 +3268,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3873</t>
+          <t>3873</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3256,7 +3320,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3912</t>
+          <t>3912</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3308,7 +3372,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3913</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3360,7 +3424,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3915</t>
+          <t>3915</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3412,7 +3476,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3916</t>
+          <t>3916</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3464,7 +3528,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3917</t>
+          <t>3917</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3516,7 +3580,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3918</t>
+          <t>3918</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3568,7 +3632,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3936</t>
+          <t>3936</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3620,7 +3684,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3938</t>
+          <t>3938</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3672,7 +3736,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3941</t>
+          <t>3941</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3724,7 +3788,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3991</t>
+          <t>3991</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3776,7 +3840,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3993</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3828,7 +3892,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3994</t>
+          <t>3994</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3880,7 +3944,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3996</t>
+          <t>3996</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3932,7 +3996,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3998</t>
+          <t>3998</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3984,7 +4048,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4006</t>
+          <t>4006</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4036,7 +4100,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4007</t>
+          <t>4007</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4088,7 +4152,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4008</t>
+          <t>4008</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4140,7 +4204,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4009</t>
+          <t>4009</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4192,7 +4256,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4010</t>
+          <t>4010</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4244,7 +4308,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4040</t>
+          <t>4040</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4296,7 +4360,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4043</t>
+          <t>4043</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4336,7 +4400,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4344,7 +4407,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4046</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4396,7 +4459,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4092</t>
+          <t>4092</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4448,7 +4511,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4093</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4500,7 +4563,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4097</t>
+          <t>4097</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4552,7 +4615,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4129</t>
+          <t>4129</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4604,7 +4667,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4131</t>
+          <t>4131</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4644,7 +4707,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -4652,7 +4714,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4132</t>
+          <t>4132</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4692,7 +4754,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -4700,7 +4761,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4752,7 +4813,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4804,7 +4865,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4856,7 +4917,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4896,7 +4957,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -4904,7 +4964,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4956,7 +5016,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4189</t>
+          <t>4189</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5008,7 +5068,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4190</t>
+          <t>4190</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5048,7 +5108,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -5056,7 +5115,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5108,7 +5167,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4195</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5160,7 +5219,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4198</t>
+          <t>4198</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5212,7 +5271,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4200</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5264,7 +5323,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4202</t>
+          <t>4202</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5316,7 +5375,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4203</t>
+          <t>4203</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5368,7 +5427,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4257</t>
+          <t>4257</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5420,7 +5479,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4259</t>
+          <t>4259</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5472,7 +5531,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4262</t>
+          <t>4262</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5524,7 +5583,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4265</t>
+          <t>4265</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5576,7 +5635,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4267</t>
+          <t>4267</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5628,7 +5687,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5680,7 +5739,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4299</t>
+          <t>4299</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5732,7 +5791,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4301</t>
+          <t>4301</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5784,7 +5843,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4323</t>
+          <t>4323</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5836,7 +5895,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5888,7 +5947,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4332</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5940,7 +5999,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4335</t>
+          <t>4335</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5992,7 +6051,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4340</t>
+          <t>4340</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6044,7 +6103,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4348</t>
+          <t>4348</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6096,7 +6155,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4377</t>
+          <t>4377</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6148,7 +6207,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6200,7 +6259,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6252,7 +6311,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4444</t>
+          <t>4444</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6304,7 +6363,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4446</t>
+          <t>4446</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6356,7 +6415,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4448</t>
+          <t>4448</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6395,7 +6454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6417,7 +6476,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -6454,7 +6513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3087</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -6491,7 +6550,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3147</t>
+          <t>3147</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -6528,7 +6587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3164</t>
+          <t>3164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -6565,7 +6624,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3183</t>
+          <t>3183</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -6602,7 +6661,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3309</t>
+          <t>3309</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -6639,7 +6698,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3759</t>
+          <t>3759</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -6676,7 +6735,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4192</t>
+          <t>4192</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -6702,6 +6761,597 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>1/1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.22%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.96%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>8.18%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.01%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4.59%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>18.50%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>13.89%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>18.04%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>34.54%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>8.08%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>15.41%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3667.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3667.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1129,6 +1128,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -4400,6 +4400,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4707,6 +4708,7 @@
           <t>81</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -4754,6 +4756,7 @@
           <t>82</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -4957,6 +4960,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -5108,6 +5112,7 @@
           <t>89</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -6767,595 +6772,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4257</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4.24%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4259</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4262</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4265</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>24.22%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4267</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>37.96%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4290</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>8.18%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4299</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.01%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4301</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.59%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4323</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4326</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4332</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4335</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4340</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>18.50%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4348</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13.89%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4377</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>18.04%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4378</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.50%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4379</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>34.54%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4444</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.09%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4446</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>8.08%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4448</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>15.41%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_3667.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_3667.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1128,7 +1130,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>16/08/2010</t>
@@ -4400,7 +4401,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>14/06/2017</t>
@@ -4708,7 +4708,6 @@
           <t>81</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr">
         <is>
           <t>13/02/2018</t>
@@ -4756,7 +4755,6 @@
           <t>82</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -4960,7 +4958,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -5112,7 +5109,6 @@
           <t>89</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr">
         <is>
           <t>31/08/2018</t>
@@ -6772,4 +6768,2924 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2964</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12.78%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3008</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3089</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>18.64%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3135</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3138</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10.10%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3142</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.26%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3149</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3153</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.22%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3166</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.14%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3185</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3187</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0.53%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3310</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3406</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>16.34%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3407</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>7</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.70%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3421</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3482</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3483</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10.73%</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3.16%</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3623</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>4</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>35.43%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3626</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.77%</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>4</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>18.55%</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3709</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3711</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>4</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>17.98%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3722</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4.44%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3725</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3730</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.62%</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.28%</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3773</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3778</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3843</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>4.10%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3846</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>14.39%</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3847</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3849</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>15.51%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3864</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6.87%</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3867</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>5</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3869</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>10.34%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3871</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3873</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3912</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3913</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3915</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3916</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3917</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3918</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>12.65%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3936</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>7</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3938</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3941</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3991</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3993</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2.52%</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3994</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.60%</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3996</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>17.12%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3998</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>5</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>7.11%</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>4006</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>4</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3.42%</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>4007</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>4</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.88%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>4008</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>4009</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>15.91%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>4</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>16.88%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>4</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4043</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>8.15%</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4046</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4093</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>5.45%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4097</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>4</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2.82%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0.90%</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4131</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>4</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4132</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>3</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>5</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0.83%</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>5</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>18.31%</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>6</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4189</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>6</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>11.01%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4190</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>6</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.43%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>6</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4195</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>4198</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>4200</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>26.07%</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>4202</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>5</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>15.85%</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>4203</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>4257</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>6</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>4.24%</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4259</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>4262</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>4265</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>4</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>24.22%</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>4267</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>37.96%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>5</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>8.18%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>4299</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>21.01%</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>4301</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>4</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>4.59%</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>4323</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>4326</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>4332</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>4335</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>4</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>5</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>18.50%</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>4348</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>13.89%</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>4377</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>6</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>18.04%</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>5</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>1.50%</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>34.54%</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>4444</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>4</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2.09%</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>5</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>8.08%</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>4448</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>5</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>15.41%</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3087</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3147</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3164</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3183</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3309</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3759</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4192</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>